--- a/CA_BejaouiS_SaidiA.xlsx
+++ b/CA_BejaouiS_SaidiA.xlsx
@@ -460,16 +460,16 @@
         <v>2016</v>
       </c>
       <c r="B2" t="n">
-        <v>640964.576</v>
+        <v>641228.621</v>
       </c>
       <c r="C2" t="n">
-        <v>603.45</v>
+        <v>2203.95</v>
       </c>
       <c r="D2" t="n">
-        <v>544043.811</v>
+        <v>511298.0609999999</v>
       </c>
       <c r="E2" t="n">
-        <v>71643.5</v>
+        <v>70538</v>
       </c>
     </row>
     <row r="3">
@@ -477,16 +477,16 @@
         <v>2017</v>
       </c>
       <c r="B3" t="n">
-        <v>726418.491</v>
+        <v>742552.922</v>
       </c>
       <c r="C3" t="n">
-        <v>43669.77</v>
+        <v>50155.178</v>
       </c>
       <c r="D3" t="n">
-        <v>346722.0169999999</v>
+        <v>334833.758</v>
       </c>
       <c r="E3" t="n">
-        <v>240862.828</v>
+        <v>237962.328</v>
       </c>
     </row>
     <row r="4">
@@ -494,16 +494,16 @@
         <v>2018</v>
       </c>
       <c r="B4" t="n">
-        <v>1416640.392</v>
+        <v>1155277.641999999</v>
       </c>
       <c r="C4" t="n">
-        <v>52626.414</v>
+        <v>57933.564</v>
       </c>
       <c r="D4" t="n">
-        <v>746027.7659999996</v>
+        <v>715923.1219999994</v>
       </c>
       <c r="E4" t="n">
-        <v>41509.8</v>
+        <v>41159.2</v>
       </c>
     </row>
     <row r="5">
@@ -511,16 +511,16 @@
         <v>2019</v>
       </c>
       <c r="B5" t="n">
-        <v>1490875.172000001</v>
+        <v>1388851.686999999</v>
       </c>
       <c r="C5" t="n">
-        <v>68842.863</v>
+        <v>66242.806</v>
       </c>
       <c r="D5" t="n">
-        <v>607270.491000001</v>
+        <v>540456.4499999998</v>
       </c>
       <c r="E5" t="n">
-        <v>264992.6590000001</v>
+        <v>292030.2589999996</v>
       </c>
     </row>
     <row r="6">
@@ -528,16 +528,16 @@
         <v>2020</v>
       </c>
       <c r="B6" t="n">
-        <v>132344.96</v>
+        <v>571073.2530000001</v>
       </c>
       <c r="C6" t="n">
-        <v>11231.9</v>
+        <v>105948.661</v>
       </c>
       <c r="D6" t="n">
-        <v>47299.4</v>
+        <v>330202.749</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>70454.842</v>
       </c>
     </row>
     <row r="7">
@@ -545,13 +545,13 @@
         <v>2021</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179096.282</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>11947.561</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>7898.8</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>

--- a/CA_BejaouiS_SaidiA.xlsx
+++ b/CA_BejaouiS_SaidiA.xlsx
@@ -460,16 +460,16 @@
         <v>2016</v>
       </c>
       <c r="B2" t="n">
-        <v>641228.621</v>
+        <v>648779.697</v>
       </c>
       <c r="C2" t="n">
         <v>2203.95</v>
       </c>
       <c r="D2" t="n">
-        <v>511298.0609999999</v>
+        <v>556829.061</v>
       </c>
       <c r="E2" t="n">
-        <v>70538</v>
+        <v>71643.5</v>
       </c>
     </row>
     <row r="3">
@@ -483,10 +483,10 @@
         <v>50155.178</v>
       </c>
       <c r="D3" t="n">
-        <v>334833.758</v>
+        <v>340534.678</v>
       </c>
       <c r="E3" t="n">
-        <v>237962.328</v>
+        <v>240862.828</v>
       </c>
     </row>
     <row r="4">
@@ -494,16 +494,16 @@
         <v>2018</v>
       </c>
       <c r="B4" t="n">
-        <v>1155277.641999999</v>
+        <v>1414428.842</v>
       </c>
       <c r="C4" t="n">
         <v>57933.564</v>
       </c>
       <c r="D4" t="n">
-        <v>715923.1219999994</v>
+        <v>806225.4219999993</v>
       </c>
       <c r="E4" t="n">
-        <v>41159.2</v>
+        <v>41509.8</v>
       </c>
     </row>
     <row r="5">
@@ -511,13 +511,13 @@
         <v>2019</v>
       </c>
       <c r="B5" t="n">
-        <v>1388851.686999999</v>
+        <v>1445582.97</v>
       </c>
       <c r="C5" t="n">
         <v>66242.806</v>
       </c>
       <c r="D5" t="n">
-        <v>540456.4499999998</v>
+        <v>648189.2469999999</v>
       </c>
       <c r="E5" t="n">
         <v>292030.2589999996</v>
@@ -528,16 +528,16 @@
         <v>2020</v>
       </c>
       <c r="B6" t="n">
-        <v>571073.2530000001</v>
+        <v>620629.0530000002</v>
       </c>
       <c r="C6" t="n">
         <v>105948.661</v>
       </c>
       <c r="D6" t="n">
-        <v>330202.749</v>
+        <v>459036.7490000003</v>
       </c>
       <c r="E6" t="n">
-        <v>70454.842</v>
+        <v>73399.842</v>
       </c>
     </row>
     <row r="7">
@@ -545,13 +545,13 @@
         <v>2021</v>
       </c>
       <c r="B7" t="n">
-        <v>179096.282</v>
+        <v>254596.282</v>
       </c>
       <c r="C7" t="n">
         <v>11947.561</v>
       </c>
       <c r="D7" t="n">
-        <v>7898.8</v>
+        <v>22648.8</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
